--- a/QRPH/CCG/StructureDefinition-ccg-di-practitionerrole.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-di-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2591,7 +2591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>147</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>168</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>199</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>248</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>252</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>261</v>
       </c>
@@ -6455,12 +6455,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN44">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
